--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_9.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_9.xlsx
@@ -488,926 +488,926 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_0</t>
+          <t>model_4_9_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9745502365254148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.775297190418535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7232393805639858</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9731449190264264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8424856115495322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1068072095513344</v>
       </c>
       <c r="H2" t="n">
-        <v>1.727458477020264</v>
+        <v>1.502588748931885</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.5105527639389038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.04497922956943512</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2777659296989441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_22</t>
+          <t>model_4_9_16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9745113367477184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.775283372738642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7124404412043578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9717729688336834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8361855934485464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1069704592227936</v>
       </c>
       <c r="H3" t="n">
-        <v>1.727458477020264</v>
+        <v>1.502681136131287</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.530474066734314</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.04727709293365479</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2888755798339844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_21</t>
+          <t>model_4_9_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9744783098708638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7752494066593015</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7350712896125546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9745946466364883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8493627972326675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1071090698242188</v>
       </c>
       <c r="H4" t="n">
-        <v>1.727458477020264</v>
+        <v>1.50290834903717</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.4887259304523468</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.04255110025405884</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2656384706497192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_20</t>
+          <t>model_4_9_17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999463397570971</v>
+        <v>0.974392249508799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7752237540861525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7026006999206655</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9704824005086929</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8304260656205651</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.107470266520977</v>
       </c>
       <c r="H5" t="n">
-        <v>1.727458477020264</v>
+        <v>1.503079891204834</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.5486258864402771</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.04943864792585373</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2990320920944214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_19</t>
+          <t>model_4_9_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9742169449882411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7751309455103035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.6936490434198259</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9692744411039541</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8251700820383823</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1082059666514397</v>
       </c>
       <c r="H6" t="n">
-        <v>1.727458477020264</v>
+        <v>1.503700375556946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.5651394724845886</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.0514618456363678</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.3083006739616394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_18</t>
+          <t>model_4_9_13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9742561946843535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7751203693198297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7480068330450049</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.976115958845894</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8568512574358131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1080412417650223</v>
       </c>
       <c r="H7" t="n">
-        <v>1.727458477020264</v>
+        <v>1.503771066665649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.4648631513118744</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.04000307619571686</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2524330914020538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_17</t>
+          <t>model_4_9_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9740038997309302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7750150453665512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.6855148118927176</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9681487355641127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8203809010313776</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1091000661253929</v>
       </c>
       <c r="H8" t="n">
-        <v>1.727458477020264</v>
+        <v>1.504475474357605</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.580145001411438</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.05334727466106415</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.3167460858821869</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_16</t>
+          <t>model_4_9_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9738338133840096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7748856585708391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7621148776159419</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9776988552783823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8649822477014664</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1098138839006424</v>
       </c>
       <c r="H9" t="n">
-        <v>1.727458477020264</v>
+        <v>1.505340576171875</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.4388374090194702</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.03735190257430077</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2380946278572083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_15</t>
+          <t>model_4_9_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9737672893893119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7748839146259394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.6781317544872594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9671036789372067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.816022755284088</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1100930795073509</v>
       </c>
       <c r="H10" t="n">
-        <v>1.727458477020264</v>
+        <v>1.505352258682251</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.5937648415565491</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.05509762838482857</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.3244313895702362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_14</t>
+          <t>model_4_9_21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9735179533628578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7747437616157471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.6714368225246813</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9661368447280131</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8120618572267772</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1111394986510277</v>
       </c>
       <c r="H11" t="n">
-        <v>1.727458477020264</v>
+        <v>1.506289482116699</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.6061153411865234</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.05671696364879608</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.331416130065918</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_13</t>
+          <t>model_4_9_22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9732640239773337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7745993928021486</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.6653706750275767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9652449310925182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.808465414772929</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1122051775455475</v>
       </c>
       <c r="H12" t="n">
-        <v>1.727458477020264</v>
+        <v>1.507254838943481</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.6173058152198792</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.0582108199596405</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.3377582430839539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_23</t>
+          <t>model_4_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9731474362899025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7745151500090466</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7774532898510484</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9793291811973213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8737793273540764</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1126944646239281</v>
       </c>
       <c r="H13" t="n">
-        <v>1.727458477020264</v>
+        <v>1.507818222045898</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.4105419516563416</v>
       </c>
       <c r="J13" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.03462128713726997</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2225815951824188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_12</t>
+          <t>model_4_9_23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9730115339589768</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7744544095175263</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.6598788405609897</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9644240569239072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8052029372917179</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1132648065686226</v>
       </c>
       <c r="H14" t="n">
-        <v>1.727458477020264</v>
+        <v>1.508224487304688</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.6274368166923523</v>
       </c>
       <c r="J14" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.05958569049835205</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.3435114026069641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_10</t>
+          <t>model_4_9_24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9727648240348503</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7743115302367098</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.6549092005864811</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.96367068496499</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8022457866507917</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1143001914024353</v>
       </c>
       <c r="H15" t="n">
-        <v>1.727458477020264</v>
+        <v>1.509179830551147</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.6366045475006104</v>
       </c>
       <c r="J15" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.06084750592708588</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.3487261235713959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_9</t>
+          <t>model_4_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9721161906858103</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7739716373417644</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.7940671133088708</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9809865271165743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8832562531009851</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1170223727822304</v>
       </c>
       <c r="H16" t="n">
-        <v>1.727458477020264</v>
+        <v>1.511452674865723</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.3798936903476715</v>
       </c>
       <c r="J16" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.03184542432427406</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.2058696895837784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_8</t>
+          <t>model_4_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9706375144393681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7732091340582419</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.8119763118220407</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9826436023134505</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.8934107120123445</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1232280731201172</v>
       </c>
       <c r="H17" t="n">
-        <v>1.727458477020264</v>
+        <v>1.516551494598389</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.3468557894229889</v>
       </c>
       <c r="J17" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.02907000854611397</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.1879629790782928</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_7</t>
+          <t>model_4_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9685815186968609</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7721707693711143</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.8311654103840713</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9842633123715164</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9042168288393335</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1318566352128983</v>
       </c>
       <c r="H18" t="n">
-        <v>1.727458477020264</v>
+        <v>1.523495197296143</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.3114567697048187</v>
       </c>
       <c r="J18" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.02635717578232288</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.1689071208238602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_6</t>
+          <t>model_4_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9657835305297268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7707860451900362</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.8515638472434107</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9857965881430246</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9156145441479787</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1435992121696472</v>
       </c>
       <c r="H19" t="n">
-        <v>1.727458477020264</v>
+        <v>1.532754778862</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.2738268375396729</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.02378911152482033</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.1488080322742462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_5</t>
+          <t>model_4_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9620346745525714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7689670984814371</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.8730222779477408</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.987178393057537</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9274948011840408</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1593323349952698</v>
       </c>
       <c r="H20" t="n">
-        <v>1.727458477020264</v>
+        <v>1.544918060302734</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.2342415302991867</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.02147474512457848</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.1278579980134964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_4</t>
+          <t>model_4_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9570698850901902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7666037540453</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.8952780961257534</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9883218497005785</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9396787685176226</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.1801684945821762</v>
       </c>
       <c r="H21" t="n">
-        <v>1.727458477020264</v>
+        <v>1.560721755027771</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.1931852251291275</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.0195595845580101</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.1063723936676979</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_3</t>
+          <t>model_4_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9505517099365114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7635565428114075</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.9179088519843916</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.989111440461983</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9518908993399631</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.2075238823890686</v>
       </c>
       <c r="H22" t="n">
-        <v>1.727458477020264</v>
+        <v>1.581098556518555</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.1514372527599335</v>
       </c>
       <c r="J22" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.01823710836470127</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.08483713865280151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_2</t>
+          <t>model_4_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9420499025234572</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7596467585262272</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.9402680179436287</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9893912477264937</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9637188681625336</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.2432041764259338</v>
       </c>
       <c r="H23" t="n">
-        <v>1.727458477020264</v>
+        <v>1.607243299484253</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.1101902797818184</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.01776846311986446</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.06397931277751923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_1</t>
+          <t>model_4_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9310132191048659</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7546416537289095</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.9614021573502846</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9889491167769368</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9745631963162436</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.2895227670669556</v>
       </c>
       <c r="H24" t="n">
-        <v>1.727458477020264</v>
+        <v>1.640712380409241</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.07120318710803986</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.01850898191332817</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.04485607519745827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_11</t>
+          <t>model_4_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999463397570971</v>
+        <v>0.9167294259636347</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7482301551764786</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.9799236232354643</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9874934907926756</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9835596741132401</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.3494687974452972</v>
       </c>
       <c r="H25" t="n">
-        <v>1.727458477020264</v>
+        <v>1.683586120605469</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.03703579679131508</v>
       </c>
       <c r="J25" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.02094699256122112</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.02899140119552612</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_9_24</t>
+          <t>model_4_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999463397570971</v>
+        <v>0.8982653188332064</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7416693210310055</v>
+        <v>0.7399806124666071</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999081836414013</v>
+        <v>0.9938034269249503</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9974676919006842</v>
+        <v>0.9846175718541985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9993754879752029</v>
+        <v>0.9894538233823199</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00225200573913753</v>
+        <v>0.4269586801528931</v>
       </c>
       <c r="H26" t="n">
-        <v>1.727458477020264</v>
+        <v>1.73875093460083</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007863627979531884</v>
+        <v>0.01143109798431396</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006298042833805084</v>
+        <v>0.02576383203268051</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003542202990502119</v>
+        <v>0.01859746687114239</v>
       </c>
     </row>
   </sheetData>
